--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365982.7428334088</v>
+        <v>457896.9318625612</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9321424.560661638</v>
+        <v>8666268.959347758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8366664.17278847</v>
+        <v>8612872.176815499</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>36.74532229879934</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>116.8405921356976</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>85.79332318808653</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040591</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663199</v>
+        <v>123.0172992876057</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>116.8405921356975</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>131.1189721502593</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.717154625645968</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1090,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>13.47835778729034</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>104.8814412733149</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1266,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,34 +1308,34 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>52.21594625443444</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5582063813129</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>170.5016145896895</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>243.2391485592454</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1458,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G12" t="n">
-        <v>81.08201083912647</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>147.9961269672386</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2933991810722</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5582063813129</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>216.1937569295498</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3400163777887</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.28670958487417</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>37.88739469587123</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8428862394544</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>21.48108218515135</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>74.55681854025008</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>243.2391485592454</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>115.0138334144191</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>88.86896262945042</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>173.2319944898047</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>42.78734947751009</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>60.61873658331222</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>263.6539091741073</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>126.5388824951702</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>229.7965692041383</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>186.2925683059789</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>72.94739929678019</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>19.52918235370601</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>30.2830096778784</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>81.77200357366344</v>
       </c>
       <c r="I31" t="n">
-        <v>17.48565126025479</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>244.245500736745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>157.083471584492</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>20.95866062610916</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>179.9948012226686</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3393,7 +3395,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>150.301327678917</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3478,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>36.80019004113345</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>394.2071006265892</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041379</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3633,7 +3635,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U39" t="n">
         <v>225.7871683969286</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>73.01324780167951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>88.58584547962764</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>209.4175447002692</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3876,7 +3878,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>121.4856996582646</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>20.95866062610966</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>203.9754717969994</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,7 +4073,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.5968754185119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
         <v>18.81721868247742</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.38664856090047</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>127.3385186497853</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>53.10181779183023</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066259</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262254</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433435</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268587</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="U2" t="n">
-        <v>204.4218319897904</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="V2" t="n">
-        <v>15.00204697330559</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="W2" t="n">
-        <v>15.00204697330559</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="X2" t="n">
-        <v>15.00204697330559</v>
+        <v>351.9116580139103</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330559</v>
+        <v>203.5822427727904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>495.2270892330031</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>320.7740599518761</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024213</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>392.911462660324</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>511.1831359408227</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>586.7735145200479</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652797</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652797</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652797</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652797</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652797</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="X3" t="n">
-        <v>663.4424262530711</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="Y3" t="n">
-        <v>663.4424262530711</v>
+        <v>160.0771049282165</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.00204697330559</v>
+        <v>314.7951708434059</v>
       </c>
       <c r="C5" t="n">
-        <v>15.00204697330559</v>
+        <v>314.7951708434059</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330559</v>
+        <v>166.465755602286</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330559</v>
+        <v>166.465755602286</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330559</v>
+        <v>166.465755602286</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330559</v>
+        <v>166.465755602286</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>523.2361246735304</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262252</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S5" t="n">
-        <v>511.8624171433432</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T5" t="n">
-        <v>511.8624171433432</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U5" t="n">
-        <v>511.8624171433432</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V5" t="n">
-        <v>322.4426321268585</v>
+        <v>463.1245860845257</v>
       </c>
       <c r="W5" t="n">
-        <v>133.0228471103738</v>
+        <v>463.1245860845257</v>
       </c>
       <c r="X5" t="n">
-        <v>15.00204697330559</v>
+        <v>314.7951708434059</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.00204697330559</v>
+        <v>314.7951708434059</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.9581650370311</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="C6" t="n">
-        <v>385.5051357559041</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="D6" t="n">
-        <v>236.5707260946528</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="E6" t="n">
-        <v>236.5707260946528</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="F6" t="n">
-        <v>90.0361681215378</v>
+        <v>144.1910958994798</v>
       </c>
       <c r="G6" t="n">
-        <v>90.0361681215378</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H6" t="n">
-        <v>90.0361681215378</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296053</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>12.36141687342361</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>111.9554248488221</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>247.5338027825024</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546601</v>
+        <v>392.911462660324</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476346</v>
+        <v>511.1831359408227</v>
       </c>
       <c r="P6" t="n">
-        <v>739.598998701706</v>
+        <v>586.7735145200479</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R6" t="n">
-        <v>749.3779500535159</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S6" t="n">
-        <v>749.3779500535159</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="T6" t="n">
-        <v>749.3779500535159</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="U6" t="n">
-        <v>559.9581650370311</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="V6" t="n">
-        <v>559.9581650370311</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="W6" t="n">
-        <v>559.9581650370311</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="X6" t="n">
-        <v>559.9581650370311</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="Y6" t="n">
-        <v>559.9581650370311</v>
+        <v>439.0550691137147</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230175</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>25.36219250254148</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="R7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="S7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="T7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="U7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="C8" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="E8" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330559</v>
+        <v>371.26277863231</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="H8" t="n">
         <v>15.00204697330559</v>
@@ -4817,7 +4819,7 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
         <v>734.4611726020263</v>
@@ -4835,19 +4837,19 @@
         <v>750.1023486652795</v>
       </c>
       <c r="U8" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V8" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W8" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X8" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y8" t="n">
-        <v>204.4218319897903</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330559</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F9" t="n">
         <v>15.00204697330559</v>
@@ -4890,10 +4892,10 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
         <v>649.2101578476347</v>
@@ -4914,19 +4916,19 @@
         <v>750.1023486652795</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V9" t="n">
-        <v>371.26277863231</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W9" t="n">
-        <v>204.4218319897903</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
         <v>15.00204697330559</v>
@@ -4981,31 +4983,31 @@
         <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2162.93222738604</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C11" t="n">
-        <v>1793.969710445628</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D11" t="n">
-        <v>1435.704011838878</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>1049.915759240633</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>638.9298544510259</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>223.2144944699017</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>186.3894711936273</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>440.055736850883</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>791.6529319622239</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2045.692679619748</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>2549.532067450162</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y11" t="n">
-        <v>2549.532067450162</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>762.0511143195747</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>587.5980850384477</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>438.6636753771965</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>279.426220371741</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>132.8916623986259</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>50.99064134900323</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>50.99064134900323</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>296.6386113086636</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>590.134131986624</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>951.9864295006901</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.824525520585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>1914.691514651696</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2029.297224930789</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2029.297224930789</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2029.297224930789</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>1835.267715270074</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>1835.267715270074</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1600.115607038331</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1345.878250310129</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1138.026750104597</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>930.2664513396428</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D13" t="n">
-        <v>644.0659310639641</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>496.1528374815709</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>349.2628899836606</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>199.7718526430155</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>50.99064134900323</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>50.99064134900323</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>230.1506500142257</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>353.276724040951</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>481.3326611335758</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>579.2999565750212</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>644.0659310639641</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1604.920121666897</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1235.957604726485</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>877.691906119735</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>877.691906119735</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>466.7060013301274</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>50.99064134900323</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>186.3894711936269</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>440.0557368508828</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>791.6529319622236</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2045.692679619749</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2331.154535198091</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>1978.385879927977</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X14" t="n">
-        <v>1604.920121666897</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
-        <v>1604.920121666897</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>642.4041512391167</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>642.4041512391167</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>493.4697415778654</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>334.2322865724099</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>187.6977285992949</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>50.99064134900323</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>50.99064134900323</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>296.6386113086637</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>590.1341319866242</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
-        <v>951.9864295006905</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.824525520586</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>1914.691514651697</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2029.29722493079</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2007.795498077381</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>1969.525402424986</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>1775.495892764271</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>1547.405415169548</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1312.253306937805</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1058.015950209603</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>850.1644500040707</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>642.4041512391167</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>219.9268242769101</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C16" t="n">
-        <v>50.99064134900323</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="D16" t="n">
-        <v>50.99064134900323</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>50.99064134900323</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>50.99064134900323</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>50.99064134900323</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>50.99064134900323</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>50.99064134900323</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K16" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>230.1506500142258</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>353.2767240409511</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>481.3326611335759</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>579.2999565750213</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>644.0659310639642</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X16" t="n">
-        <v>622.36786825068</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y16" t="n">
-        <v>401.5752891071498</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.770455879627</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392153</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>552.8079389392153</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>552.8079389392153</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>141.8220341496078</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>141.8220341496078</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450755</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943749</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>382.3382468580007</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="C19" t="n">
-        <v>213.4020639300938</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="D19" t="n">
-        <v>213.4020639300938</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W19" t="n">
-        <v>831.1203768995482</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X19" t="n">
-        <v>603.1308260015309</v>
+        <v>403.4802848832076</v>
       </c>
       <c r="Y19" t="n">
-        <v>382.3382468580007</v>
+        <v>182.6877057396775</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1811.579746109089</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C20" t="n">
-        <v>1442.617229168677</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D20" t="n">
-        <v>1084.351530561927</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E20" t="n">
-        <v>698.5632779636826</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
         <v>108.5090151927147</v>
@@ -5750,13 +5752,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>3076.408529066615</v>
       </c>
       <c r="V20" t="n">
-        <v>2961.784676410102</v>
+        <v>2745.345641723045</v>
       </c>
       <c r="W20" t="n">
-        <v>2961.784676410102</v>
+        <v>2392.57698645293</v>
       </c>
       <c r="X20" t="n">
-        <v>2588.318918149022</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y20" t="n">
-        <v>2198.179586173211</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5835,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>310.0549803959803</v>
+        <v>296.6793464139411</v>
       </c>
       <c r="C22" t="n">
-        <v>310.0549803959803</v>
+        <v>127.7431634860341</v>
       </c>
       <c r="D22" t="n">
-        <v>310.0549803959803</v>
+        <v>127.7431634860341</v>
       </c>
       <c r="E22" t="n">
-        <v>310.0549803959803</v>
+        <v>127.7431634860341</v>
       </c>
       <c r="F22" t="n">
-        <v>310.0549803959803</v>
+        <v>127.7431634860341</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5932,28 +5934,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U22" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V22" t="n">
-        <v>576.372060369826</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W22" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X22" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y22" t="n">
-        <v>310.0549803959803</v>
+        <v>478.3278112441808</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218343</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>236.3260682181391</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>2740.71941966821</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X23" t="n">
-        <v>2367.25366140713</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.114329431319</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.0642295677645</v>
+        <v>2790.283754563412</v>
       </c>
       <c r="C25" t="n">
-        <v>382.1280466398576</v>
+        <v>2621.347571635505</v>
       </c>
       <c r="D25" t="n">
-        <v>382.1280466398576</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V25" t="n">
-        <v>732.7126943980043</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W25" t="n">
-        <v>732.7126943980043</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X25" t="n">
-        <v>732.7126943980043</v>
+        <v>3192.724798537181</v>
       </c>
       <c r="Y25" t="n">
-        <v>732.7126943980043</v>
+        <v>2971.932219393651</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1221.551972426786</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X26" t="n">
-        <v>1998.291144466719</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y26" t="n">
-        <v>1608.151812490907</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6412,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X28" t="n">
-        <v>901.1605589962596</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y28" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2006.793820398077</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2766.859418723278</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>2393.393660462199</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>2393.393660462199</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="C31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="D31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="E31" t="n">
-        <v>544.9843613377744</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="F31" t="n">
-        <v>398.094413839864</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="G31" t="n">
-        <v>230.391577214583</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="H31" t="n">
-        <v>84.17439043244079</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6652,19 +6654,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="Y31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1267.635416552713</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.635416552713</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D32" t="n">
-        <v>909.3697179459625</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E32" t="n">
-        <v>523.5814653477182</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796418</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535338</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>1514.348043559526</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="33">
@@ -6768,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E34" t="n">
-        <v>2923.008239820892</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F34" t="n">
-        <v>2776.118292322981</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G34" t="n">
-        <v>2617.448119005312</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.435457340373</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609171</v>
+        <v>3015.332590466016</v>
       </c>
       <c r="V34" t="n">
-        <v>3070.921333403285</v>
+        <v>2760.64810226013</v>
       </c>
       <c r="W34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="X34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1976.204921733553</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6950,37 +6952,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3033.502222608318</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3033.502222608318</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2702.439335264748</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2349.670679994633</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>1976.204921733553</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>1976.204921733553</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986312</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="C37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="D37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="E37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="F37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="G37" t="n">
-        <v>2617.448119005312</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H37" t="n">
         <v>2471.23093222317</v>
@@ -7093,52 +7095,52 @@
         <v>2471.23093222317</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K37" t="n">
         <v>2581.36454002828</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M37" t="n">
         <v>2904.506865249835</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O37" t="n">
         <v>3213.734051497872</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q37" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193526</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763052</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="V37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="W37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="X37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="Y37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796265</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C38" t="n">
-        <v>921.7704558796265</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>921.7704558796265</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>921.7704558796265</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>2956.900148883248</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>2810.010201385338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>2642.307364760057</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.605821609171</v>
+        <v>831.406353818561</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.605821609171</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.605821609171</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X40" t="n">
-        <v>3325.605821609171</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>835.0256084444185</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C41" t="n">
-        <v>466.0630915040068</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>466.0630915040068</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E41" t="n">
-        <v>466.0630915040068</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F41" t="n">
-        <v>466.0630915040068</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>50.99064134900323</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>61.42322867772793</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>512.4574419261368</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1045.989346598061</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>1592.768163656844</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2095.740634536181</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>2490.515000893359</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>2490.515000893359</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2337.999194015546</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>1985.230538745432</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>1611.764780484352</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1221.62544850854</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>926.0223793979284</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>751.5693501168014</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>602.6349404555501</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>443.3974854500947</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>296.8629274769796</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>160.4998273095977</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>144.6679108396206</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>382.9321098199678</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>749.6302701326332</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2549.532067450161</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2549.387714042676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2419.949827536156</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2227.306827214012</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>1999.238980348427</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1764.086872116685</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1509.849515388483</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1301.99801518295</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1094.237716417996</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="C43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="D43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="E43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="F43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="G43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>905.3655307350048</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>616.2626638606483</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V43" t="n">
-        <v>361.5781756547615</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W43" t="n">
-        <v>72.16100561780087</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X43" t="n">
-        <v>50.99064134900323</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1193.291307051169</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>824.3287901107573</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>466.0630915040068</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>466.0630915040068</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F44" t="n">
-        <v>466.0630915040068</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>50.99064134900323</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>50.99064134900323</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>502.0248545974121</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1035.556759269336</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>1582.335576328119</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>1847.454272780499</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>2242.228639137677</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>2490.515000893359</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2343.496237352183</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>1970.030479091103</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>1579.891147115291</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>926.0223793979292</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>751.5693501168022</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>602.6349404555509</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>443.3974854500954</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>296.8629274769804</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>160.4998273095985</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>144.6679108396208</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>382.9321098199679</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>749.6302701326333</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2549.532067450162</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2549.387714042677</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2419.949827536157</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2227.306827214013</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>1999.238980348428</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1764.086872116686</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1509.849515388484</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1301.998015182951</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1094.237716417997</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>616.2626638606483</v>
+        <v>792.2622395052706</v>
       </c>
       <c r="V46" t="n">
-        <v>616.2626638606483</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="W46" t="n">
-        <v>326.8454938236877</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X46" t="n">
-        <v>98.85594292567038</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.85594292567038</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8877205747719</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>94.36637323394321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988685</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>134.3286684293327</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>222.8849795897604</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>19.68706256115871</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>21.88218769163137</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>79.02279728521563</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22689,7 +22691,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>119.9796620153909</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784827</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.3148989349955578</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22741,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22787,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319743</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>171.5460391182791</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V5" t="n">
-        <v>140.226671303815</v>
+        <v>204.7349591825292</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>252.8905085427716</v>
+        <v>222.8849795897604</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.598944475930125</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22875,16 +22877,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>5.123096665782924</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>71.71574100281723</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>4.37813005785722</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825418</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>12.56652187753493</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.47009429716282</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>151.7212889301279</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -23075,13 +23077,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>85.99672338893581</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>61.65174237655248</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.1637893657753</v>
@@ -23154,16 +23156,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>86.52244598482517</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23194,7 +23196,7 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>101.2177245773851</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
         <v>125.7072197708667</v>
@@ -23221,7 +23223,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>16.47009429716282</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>130.6245080518219</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>66.11485303372851</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.6915663742737</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>206.704164525825</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>126.4919521192237</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23349,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>54.25800553866227</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>92.88584454571125</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.54219944928975</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.2867095848742</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.809572818776</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,16 +23430,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.3151846346758</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.9382845759052</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8.242911051707722</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.85573157916966</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.7694211601826</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>194.7445699524669</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7688271957736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.1261226415114</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.11485303372848</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.6915663742737</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>206.704164525825</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>111.5585015405851</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23589,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>92.88584454571124</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>30.54219944928974</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>96.58162804716943</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778757926</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3113116019144</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2933991810722</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.9382845759051</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8.242911051707694</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.85573157916963</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.7694211601826</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>194.7445699524668</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7688271957736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>204.2285732038858</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>220.0509458470704</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>84.51310991088954</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>29.7411814999017</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>197.6540357071406</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23978,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>233.6440512519067</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>208.2078224813919</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>105.407071675716</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>22.8690891624837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>168.0688818921502</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,10 +24265,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>97.95568926599657</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24421,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>65.84507501784907</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776834</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>296.7837013816888</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24652,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.1804730353311</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>334.9898820931292</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>62.98301134065734</v>
       </c>
       <c r="I31" t="n">
-        <v>78.86676914958329</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.4883409267356</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>8.942336674536193</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25126,16 +25128,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>198.59028865006</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>23.92316891695154</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15.72448058011122</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>249.4116481644794</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>12.66894511512226</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>97.95568926599702</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>71.74176711264127</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>197.6259927259852</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25685,7 +25687,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>118.3347137698657</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>44.54010860076366</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25837,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>145.2654969204136</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.4453316210368</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26077,16 +26079,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>158.8733195558276</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337677</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337677</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337675</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732074.4812007227</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732074.4812007229</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777591.6108183695</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777591.6108183695</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.6800963041</v>
+        <v>139242.6491112605</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="D2" t="n">
         <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318747</v>
@@ -26332,28 +26334,28 @@
         <v>296136.8796318746</v>
       </c>
       <c r="I2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="J2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="K2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="L2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="K2" t="n">
-        <v>296136.8796318747</v>
-      </c>
-      <c r="L2" t="n">
-        <v>296136.8796318747</v>
-      </c>
       <c r="M2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="N2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="O2" t="n">
-        <v>269166.3268217432</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="P2" t="n">
-        <v>269166.3268217432</v>
+        <v>296136.8796318746</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>43803.80384074452</v>
       </c>
       <c r="E3" t="n">
-        <v>442006.5628979789</v>
+        <v>627134.6436336677</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>176272.847277912</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>38421.40650613414</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10295.60674904871</v>
       </c>
       <c r="M3" t="n">
-        <v>112106.270910017</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="D4" t="n">
         <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>449.9968236586044</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>449.9968236586045</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>492.9197747418263</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>59058.54363117637</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>59058.54363117638</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139331</v>
@@ -26488,16 +26490,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26506,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>62510.01949817635</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>62510.01949817636</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-498504.8229542272</v>
+        <v>-457239.097790851</v>
       </c>
       <c r="C6" t="n">
-        <v>92852.07956661808</v>
+        <v>85416.3371842794</v>
       </c>
       <c r="D6" t="n">
-        <v>92852.07956661808</v>
+        <v>49048.27572587359</v>
       </c>
       <c r="E6" t="n">
-        <v>-248104.7060141024</v>
+        <v>-405888.7515521926</v>
       </c>
       <c r="F6" t="n">
-        <v>193901.8568838765</v>
+        <v>221245.892081475</v>
       </c>
       <c r="G6" t="n">
-        <v>44973.04480356321</v>
+        <v>221245.8920814753</v>
       </c>
       <c r="H6" t="n">
+        <v>221245.8920814753</v>
+      </c>
+      <c r="I6" t="n">
         <v>221245.8920814751</v>
       </c>
-      <c r="I6" t="n">
-        <v>221245.8920814753</v>
-      </c>
       <c r="J6" t="n">
-        <v>172180.9473529307</v>
+        <v>182824.485575341</v>
       </c>
       <c r="K6" t="n">
+        <v>221245.892081475</v>
+      </c>
+      <c r="L6" t="n">
+        <v>210950.2853324264</v>
+      </c>
+      <c r="M6" t="n">
+        <v>60789.45021359751</v>
+      </c>
+      <c r="N6" t="n">
+        <v>221245.8920814751</v>
+      </c>
+      <c r="O6" t="n">
         <v>221245.8920814752</v>
       </c>
-      <c r="L6" t="n">
-        <v>221245.8920814753</v>
-      </c>
-      <c r="M6" t="n">
-        <v>109139.6211714582</v>
-      </c>
-      <c r="N6" t="n">
-        <v>221245.8920814752</v>
-      </c>
-      <c r="O6" t="n">
-        <v>206163.3875488251</v>
-      </c>
       <c r="P6" t="n">
-        <v>206163.387548825</v>
+        <v>221245.8920814751</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>931.4521195382529</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>931.4521195382531</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>637.3830168625403</v>
-      </c>
-      <c r="P4" t="n">
-        <v>637.3830168625404</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.39307775568375</v>
       </c>
       <c r="E3" t="n">
-        <v>382.9821786253483</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>158.3245810550452</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>40.67946607761124</v>
       </c>
       <c r="E4" t="n">
-        <v>449.8574296962206</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>194.0184385397525</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761124</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962206</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761124</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962206</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>194.0184385397525</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>238.7894450985626</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>138.4613654251943</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292672</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.744531133822119</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>38.34867947425579</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>317.8123993192354</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>476.3184022139258</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>590.9150969006346</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>657.5069024517437</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>668.1460515357159</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9113700737721</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>538.4682577075384</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.3672364775337</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>235.2174038349539</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>85.32850321197162</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.39168503830633</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2995624907057695</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.003500785421902</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>68.98018055071024</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>323.5214404249043</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>435.0145016768039</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>507.6414051483478</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>521.0771626084799</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>476.6838030999208</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>382.5807771741175</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>37.21414836079715</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.075514130713717</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1318092621988094</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.67966775654439</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.93377332636741</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>50.51219035135313</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>249.7207862775178</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>263.295555691772</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>257.0349758719249</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>237.4134025341108</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>203.1481803006051</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.6492700502762</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>75.52397021698684</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.176762232507848</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09161824126605776</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.74453113382212</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>38.3486794742558</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>317.8123993192355</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>476.3184022139259</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>590.9150969006347</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>657.5069024517438</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>668.146051535716</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>630.9113700737722</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>538.4682577075386</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.3672364775338</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>235.217403834954</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>85.32850321197165</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>16.39168503830634</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2995624907057696</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.003500785421903</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>68.98018055071026</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>323.5214404249044</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>435.014501676804</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>507.6414051483479</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>521.07716260848</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>476.6838030999209</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>382.5807771741176</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>37.21414836079716</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>8.075514130713719</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1318092621988095</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.679667756544391</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.93377332636741</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>50.51219035135315</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>249.7207862775179</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>263.2955556917721</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>257.034975871925</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>237.4134025341109</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>203.1481803006051</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.6492700502762</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>75.52397021698685</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>7.17676223250785</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09161824126605778</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34129,10 +34131,10 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>181.0459045266863</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>230.6278180436924</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
         <v>691.3565293623194</v>
@@ -34150,7 +34152,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563569</v>
@@ -34366,10 +34368,10 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623194</v>
@@ -34381,7 +34383,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>497.8948745048988</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
         <v>629.9949819746414</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>107.4477330152293</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>0.6199264508352701</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7664947925491</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>256.2285511689452</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>355.1486819306473</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>427.160669224471</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>438.7329879391249</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>400.8131586520853</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>307.2352619522689</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.0615466030842</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>19.63186602082178</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.44926113497019</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>185.6800014505453</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>296.4601218969297</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>365.5073712263294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>389.7354505251466</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>334.0875586554764</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>248.6063697597873</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.763343716255</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>66.13359572616739</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>124.3697717441669</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3494314066917</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>98.95686408226803</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>65.42017625145746</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.7664947925492</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>256.2285511689453</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>355.1486819306475</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>427.1606692244711</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>438.7329879391251</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>400.8131586520855</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>307.235261952269</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.0615466030843</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>19.63186602082183</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.44926113497021</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>185.6800014505454</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>296.4601218969298</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>365.5073712263296</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>389.7354505251467</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>334.0875586554765</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>248.6063697597874</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.7633437162551</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>66.13359572616741</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>124.369771744167</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>129.3494314066918</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>98.95686408226808</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>65.42017625145752</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>10.53796699871183</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37798,7 +37800,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38029,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>267.7966630832121</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625612</v>
+        <v>399383.529336755</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347758</v>
+        <v>8547013.059513928</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815499</v>
+        <v>8673692.685730744</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.74532229879934</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887086</v>
+        <v>165.1725371760949</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>129.3420634549345</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="U3" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>92.73964154763173</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>21.41405905276474</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>52.21594625443479</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="V5" t="n">
-        <v>123.0172992876057</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>131.1189721502593</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9.148282835231409</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S6" t="n">
-        <v>146.8461210887086</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474393</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>13.47835778729034</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="H8" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>165.172537176095</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.8814412733149</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>132.5380477013907</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>52.21594625443502</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>223.3561215393488</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>243.2391485592454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1460,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>134.9994691657081</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394539</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>119.1488185988159</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>368.1269206376607</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>201.6622187863195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394544</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>135.0033547520751</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>6.049105616774907</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>243.2391485592454</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>88.11276492133763</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>115.0138334144191</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>135.4371632022853</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>42.78734947751009</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>60.61873658331222</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>218.5219900933418</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>179.6989004166823</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>126.5388824951702</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2414,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>131.5522128412688</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>229.7965692041376</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>20.78023945356895</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>229.7965692041367</v>
+        <v>198.7926393862117</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>81.77200357366344</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>87.93270968653144</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>223.7383150556605</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>75.31950762206645</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.95866062610916</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>229.7965692041376</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>89.45423727436612</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>150.301327678917</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>152.3650712933279</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>229.7965692041379</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>310.0296857152402</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>88.58584547962764</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="41">
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>114.5505532674841</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3878,7 +3878,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>121.4856996582646</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>168.4013722874436</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>229.796569204138</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>219.1834685212288</v>
       </c>
     </row>
     <row r="45">
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>127.3385186497853</v>
+        <v>152.4136899928913</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.25282753167056</v>
+        <v>583.2614020227611</v>
       </c>
       <c r="C2" t="n">
-        <v>55.25282753167056</v>
+        <v>583.2614020227611</v>
       </c>
       <c r="D2" t="n">
-        <v>55.25282753167056</v>
+        <v>583.2614020227611</v>
       </c>
       <c r="E2" t="n">
-        <v>55.25282753167056</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="F2" t="n">
-        <v>55.25282753167056</v>
+        <v>204.4218319897908</v>
       </c>
       <c r="G2" t="n">
-        <v>55.25282753167056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>55.25282753167056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>18.13634036116618</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>21.0337116067851</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183023</v>
+        <v>80.81213159058976</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458396</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066259</v>
+        <v>347.1218190644762</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588563</v>
+        <v>509.4952041123838</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735306</v>
+        <v>649.4845259985594</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548346</v>
+        <v>734.4611726020279</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="T2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="U2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="V2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="W2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="X2" t="n">
-        <v>351.9116580139103</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.5822427727904</v>
+        <v>583.2614020227611</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616815</v>
+        <v>67.13418877024228</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415666</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>286.538206975247</v>
+        <v>338.7690911140249</v>
       </c>
       <c r="N3" t="n">
-        <v>392.911462660324</v>
+        <v>512.5000587546608</v>
       </c>
       <c r="O3" t="n">
-        <v>511.1831359408227</v>
+        <v>649.2101578476356</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200479</v>
+        <v>739.5989987017072</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548345</v>
+        <v>676.9378076264295</v>
       </c>
       <c r="S3" t="n">
-        <v>456.7359354104562</v>
+        <v>676.9378076264295</v>
       </c>
       <c r="T3" t="n">
-        <v>308.4065201693364</v>
+        <v>487.5180226099444</v>
       </c>
       <c r="U3" t="n">
-        <v>160.0771049282165</v>
+        <v>298.0982375934592</v>
       </c>
       <c r="V3" t="n">
-        <v>160.0771049282165</v>
+        <v>298.0982375934592</v>
       </c>
       <c r="W3" t="n">
-        <v>160.0771049282165</v>
+        <v>108.6784525769741</v>
       </c>
       <c r="X3" t="n">
-        <v>160.0771049282165</v>
+        <v>108.6784525769741</v>
       </c>
       <c r="Y3" t="n">
-        <v>160.0771049282165</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>14.1259580354324</v>
+        <v>27.03967056230188</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510269</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665703</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>314.7951708434059</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C5" t="n">
-        <v>314.7951708434059</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D5" t="n">
-        <v>166.465755602286</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E5" t="n">
-        <v>166.465755602286</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F5" t="n">
-        <v>166.465755602286</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G5" t="n">
-        <v>166.465755602286</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H5" t="n">
-        <v>18.13634036116618</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I5" t="n">
-        <v>18.13634036116618</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183017</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458395</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066255</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588559</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735304</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548345</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3844843548345</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="U5" t="n">
-        <v>587.3844843548345</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="V5" t="n">
-        <v>463.1245860845257</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="W5" t="n">
-        <v>463.1245860845257</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X5" t="n">
-        <v>314.7951708434059</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y5" t="n">
-        <v>314.7951708434059</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439.0550691137147</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="C6" t="n">
-        <v>439.0550691137147</v>
+        <v>161.7819178834135</v>
       </c>
       <c r="D6" t="n">
-        <v>290.7256538725949</v>
+        <v>161.7819178834135</v>
       </c>
       <c r="E6" t="n">
-        <v>290.7256538725949</v>
+        <v>161.7819178834135</v>
       </c>
       <c r="F6" t="n">
-        <v>144.1910958994798</v>
+        <v>161.7819178834135</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74768968709669</v>
+        <v>24.2427367058626</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709669</v>
+        <v>24.2427367058626</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709669</v>
+        <v>24.2427367058626</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K6" t="n">
-        <v>12.36141687342361</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L6" t="n">
-        <v>111.9554248488221</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>247.5338027825024</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>392.911462660324</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408227</v>
+        <v>649.2101578476359</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200479</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548345</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S6" t="n">
-        <v>439.0550691137147</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="T6" t="n">
-        <v>439.0550691137147</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="U6" t="n">
-        <v>439.0550691137147</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="V6" t="n">
-        <v>439.0550691137147</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137147</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="X6" t="n">
-        <v>439.0550691137147</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="Y6" t="n">
-        <v>439.0550691137147</v>
+        <v>336.2349471645405</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L7" t="n">
-        <v>14.1259580354324</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510269</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665703</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O7" t="n">
-        <v>25.36219250254148</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.6825636487947</v>
+        <v>393.8416170062762</v>
       </c>
       <c r="C8" t="n">
-        <v>560.6825636487947</v>
+        <v>393.8416170062762</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487947</v>
+        <v>393.8416170062762</v>
       </c>
       <c r="E8" t="n">
-        <v>560.6825636487947</v>
+        <v>393.8416170062762</v>
       </c>
       <c r="F8" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897909</v>
       </c>
       <c r="G8" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058996</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079193</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644767</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123841</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985599</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020283</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652817</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652817</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652817</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652817</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227616</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227616</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227616</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227616</v>
       </c>
       <c r="Y8" t="n">
-        <v>560.6825636487947</v>
+        <v>583.2614020227616</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>644.1614988942544</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="C9" t="n">
-        <v>469.7084696131274</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="D9" t="n">
-        <v>320.7740599518761</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E9" t="n">
-        <v>161.5366049464206</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024237</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772654</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140252</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546613</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476362</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017078</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652815</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652815</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652815</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652815</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652815</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652795</v>
+        <v>616.2255328052909</v>
       </c>
       <c r="W9" t="n">
-        <v>750.1023486652795</v>
+        <v>616.2255328052909</v>
       </c>
       <c r="X9" t="n">
-        <v>750.1023486652795</v>
+        <v>616.2255328052909</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.1023486652795</v>
+        <v>616.2255328052909</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230194</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170752</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396384</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829051</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829051</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829051</v>
       </c>
       <c r="R10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829051</v>
       </c>
       <c r="S10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829051</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829051</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829051</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829051</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829051</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="12">
@@ -5108,19 +5108,19 @@
         <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
@@ -5208,43 +5208,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1306.412744518801</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5278,19 +5278,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181855</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181855</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181855</v>
+        <v>562.7533653856145</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181855</v>
+        <v>562.7533653856145</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181855</v>
+        <v>562.7533653856145</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181855</v>
+        <v>562.7533653856145</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181855</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>525.6051276760343</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3079.909711953368</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W17" t="n">
-        <v>3079.909711953368</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X17" t="n">
-        <v>3079.909711953368</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y17" t="n">
-        <v>2689.770379977556</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
@@ -5594,28 +5594,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>182.6877057396775</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="C19" t="n">
-        <v>182.6877057396775</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="D19" t="n">
-        <v>182.6877057396775</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E19" t="n">
-        <v>182.6877057396775</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>182.6877057396775</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>182.6877057396775</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5673,52 +5673,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812249</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X19" t="n">
-        <v>403.4802848832076</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.6877057396775</v>
+        <v>471.1308394896936</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1632.511388127729</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C20" t="n">
-        <v>1263.548871187317</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="D20" t="n">
-        <v>905.2831725805665</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>3076.408529066615</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V20" t="n">
-        <v>2745.345641723045</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W20" t="n">
-        <v>2392.57698645293</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X20" t="n">
-        <v>2019.11122819185</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y20" t="n">
-        <v>2019.11122819185</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>296.6793464139411</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C22" t="n">
-        <v>127.7431634860341</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D22" t="n">
-        <v>127.7431634860341</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7431634860341</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>127.7431634860341</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
@@ -5940,22 +5940,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>699.1203903877109</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="W22" t="n">
-        <v>699.1203903877109</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="X22" t="n">
-        <v>699.1203903877109</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="Y22" t="n">
-        <v>478.3278112441808</v>
+        <v>700.1577228956174</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2175.400891308157</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C23" t="n">
-        <v>1806.438374367745</v>
+        <v>663.0986074121186</v>
       </c>
       <c r="D23" t="n">
-        <v>1448.172675760994</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.38442316275</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F23" t="n">
-        <v>651.3985183731427</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>236.3260682181391</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6019,22 +6019,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>3325.60582160917</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2952.14006334809</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.000731372279</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2790.283754563412</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>2621.347571635505</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.230932223169</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.230932223169</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>3192.724798537181</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>2971.932219393651</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038043</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097632</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.404020490881</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>709.615767892637</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030294</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339057</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077977</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102165</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1405.526882613611</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1036.5643656732</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.40402049088</v>
+        <v>678.2986670664493</v>
       </c>
       <c r="E29" t="n">
-        <v>709.6157678926361</v>
+        <v>678.2986670664493</v>
       </c>
       <c r="F29" t="n">
-        <v>298.6298631030285</v>
+        <v>267.3127622768417</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438285</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V31" t="n">
-        <v>377.0996507379416</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="W31" t="n">
-        <v>377.0996507379416</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038042</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.40402049088</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926361</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F32" t="n">
-        <v>298.6298631030285</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102164</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223169</v>
+        <v>289.4823746594539</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3304.435457340373</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U34" t="n">
-        <v>3015.332590466016</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V34" t="n">
-        <v>2760.64810226013</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.230932223169</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.230932223169</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223169</v>
+        <v>471.1308394896936</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038043</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097632</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490881</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>709.615767892637</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030294</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102165</v>
+        <v>1608.151812490907</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2623.050455131167</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C37" t="n">
-        <v>2623.050455131167</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D37" t="n">
-        <v>2623.050455131167</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
-        <v>2623.050455131167</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
-        <v>2623.050455131167</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435997</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>2912.153322005523</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>2623.050455131167</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="V37" t="n">
-        <v>2623.050455131167</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="W37" t="n">
-        <v>2623.050455131167</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="X37" t="n">
-        <v>2623.050455131167</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="Y37" t="n">
-        <v>2623.050455131167</v>
+        <v>546.190314257152</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E38" t="n">
         <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7186,40 +7186,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V38" t="n">
-        <v>3093.488074938325</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.71941966821</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.25366140713</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372933</v>
@@ -7341,43 +7341,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U40" t="n">
-        <v>831.406353818561</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V40" t="n">
-        <v>576.7218656126742</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W40" t="n">
-        <v>287.3046955757135</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X40" t="n">
-        <v>287.3046955757135</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218342</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038042</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.40402049088</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926361</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G41" t="n">
         <v>66.5121164321834</v>
@@ -7411,7 +7411,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7438,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="42">
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.2249443698244</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C43" t="n">
-        <v>189.2249443698244</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D43" t="n">
-        <v>189.2249443698244</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>189.2249443698244</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>189.2249443698244</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7602,19 +7602,19 @@
         <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133545</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V43" t="n">
-        <v>410.0175235133545</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W43" t="n">
-        <v>410.0175235133545</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X43" t="n">
-        <v>410.0175235133545</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.2249443698244</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038044</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097632</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490882</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926375</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030299</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102166</v>
+        <v>1477.112184968822</v>
       </c>
     </row>
     <row r="45">
@@ -7718,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U46" t="n">
-        <v>792.2622395052706</v>
+        <v>545.1671681726692</v>
       </c>
       <c r="V46" t="n">
-        <v>537.5777512993837</v>
+        <v>545.1671681726692</v>
       </c>
       <c r="W46" t="n">
-        <v>248.1605812624231</v>
+        <v>545.1671681726692</v>
       </c>
       <c r="X46" t="n">
-        <v>248.1605812624231</v>
+        <v>545.1671681726692</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>545.1671681726692</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059415</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753911</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>225.5722460637377</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>94.36637323394321</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>222.8849795897604</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.391817567345</v>
+        <v>221.0654014799587</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.68706256115871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354543</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827334</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345809</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.88218769163137</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>48.87899782081595</v>
+        <v>7.884010625680929</v>
       </c>
       <c r="U3" t="n">
-        <v>79.02279728521563</v>
+        <v>38.33818124377063</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459931</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>112.9430542296726</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818782</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3148989349955578</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,28 +22743,28 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474393</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482527</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.1813952927055</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693932</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>207.8369205319743</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>171.5460391182791</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880639</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>25.91829388988657</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>85.99672338893558</v>
       </c>
       <c r="V5" t="n">
-        <v>204.7349591825292</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510928</v>
       </c>
       <c r="X5" t="n">
-        <v>222.8849795897604</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.598944475930125</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>5.123096665782924</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354543</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827334</v>
+        <v>6.230938197426912</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345809</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4.37813005785722</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818782</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K7" t="n">
-        <v>21.7289579877603</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,25 +22983,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>12.56652187753493</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.1813952927055</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693932</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971601</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753916</v>
+        <v>219.350458575391</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>225.5722460637376</v>
       </c>
       <c r="H8" t="n">
-        <v>151.7212889301279</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199746</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666364</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
@@ -23077,7 +23077,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>85.99672338893535</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.65174237655248</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409145</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265828</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846311</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>100.2625394480345</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23196,16 +23196,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>57.0699996282541</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.1043098940284</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709373</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.47009429716282</v>
+        <v>68.68604055159717</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>132.8223696106903</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346021</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>159.3777201241318</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>126.4919521192237</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758495</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>132.9888247250121</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>13.80344943460108</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>168.0688818921495</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778757926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>151.2084834535378</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>375.8812644554869</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>84.51310991088954</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>60.50270809687473</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>29.7411814999017</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>219.2458784183976</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>208.2078224813919</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>105.407071675716</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,13 +24180,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>33.61565323048623</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>174.9841412040007</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>168.0688818921502</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>94.15744254776834</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>181.1251564493159</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24499,16 +24499,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>348.9508612249001</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>181.1251564493168</v>
+        <v>212.1290862672417</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24733,19 +24733,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>62.98301134065734</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>181.1251564493168</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24970,19 +24970,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>145.9927856228085</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>91.92731347656138</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25128,19 +25128,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>198.59028865006</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>181.1251564493159</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>296.7837013816875</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>15.72448058011122</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.846766912285</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>97.95568926599702</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>76.20825294081334</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>197.6259927259852</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="41">
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493168</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>255.180547410985</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>44.54010860076366</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>50.18328106465123</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493155</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>167.0544701348248</v>
       </c>
     </row>
     <row r="45">
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26076,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>158.8733195558276</v>
+        <v>133.7981482127216</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769753</v>
+        <v>433263.075833768</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769753</v>
+        <v>433263.0758337679</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337677</v>
+        <v>433263.0758337681</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="12">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112605</v>
+        <v>149975.6800963041</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.6800963041</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.680096304</v>
+        <v>149975.6800963042</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="F2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="H2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="I2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="J2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="K2" t="n">
         <v>296136.8796318744</v>
@@ -26346,16 +26346,16 @@
         <v>296136.8796318746</v>
       </c>
       <c r="M2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="N2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="O2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="N2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296136.8796318747</v>
-      </c>
       <c r="P2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751304</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074452</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336677</v>
+        <v>627134.6436336671</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613414</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904871</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602628</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602628</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723344</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26469,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161361</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.097790851</v>
+        <v>-510698.8849732621</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.3371842794</v>
+        <v>80658.01754758356</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587359</v>
+        <v>80658.01754758347</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521926</v>
+        <v>-409962.7469303616</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033057</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814753</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814753</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.485575341</v>
+        <v>168106.9519747607</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324264</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359751</v>
+        <v>56715.45483542813</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033054</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129051</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568375</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>541.3067596803932</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887089</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761124</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761124</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961053</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986736</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206853</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>238.7894450985626</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332807</v>
+        <v>150.591218493672</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297035</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N5" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961053</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K6" t="n">
-        <v>138.4613654251943</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206853</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720419</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297035</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077004</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954487</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043128</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528642</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672896</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470278</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470028</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622684</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151095</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974685</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619228</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.65196850792459</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061603</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435306</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575677</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590855</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621739</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405035</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975333</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829657</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292676</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628874</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550084</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288823</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820374</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390171</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445829</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620025</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639165</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114202</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.908948276507</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276992</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604416</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592435</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820539</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784867</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647915</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181399</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32475,7 +32475,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L20" t="n">
         <v>691.3565293623194</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043784</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718112</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040804</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.0183145243146</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>107.4477330152293</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679318</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6171412472592124</v>
+        <v>10.60944440765052</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945162</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394228</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>13.6224856581357</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043784</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718112</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040804</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6199264508352701</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559581</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887086</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679318</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592124</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945162</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394228</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N7" t="n">
-        <v>13.6224856581357</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868251</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788361</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973024</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.815666319755</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504119</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405816</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916024</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065998</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781489</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606293</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.782083875515</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996324</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848232</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855717</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765013</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646092</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061169</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>23.6651852952084</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400666</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553995</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.529336755</v>
+        <v>450275.6437737595</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513928</v>
+        <v>8636206.831769029</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730744</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>43.07008646612802</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>86.27197698880641</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.1725371760949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846314</v>
+        <v>77.29308816345811</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>52.0489752914763</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.73964154763173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>21.41405905276462</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443479</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>81.59093052713874</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5255871663202</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U5" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663202</v>
+        <v>65.31103090874895</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663202</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9.148282835231409</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846314</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>166.2393225695772</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="7">
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>36.43383855780555</v>
       </c>
       <c r="V7" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663204</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663204</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663204</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.396723986041656</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U8" t="n">
-        <v>165.172537176095</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V9" t="n">
-        <v>132.5380477013907</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>130.494984023002</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>52.21594625443502</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>223.3561215393488</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>241.2480189963543</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>119.1488185988159</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>93.35882079148004</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>368.1269206376607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>372.9866887009327</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1742,7 +1742,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969275</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>72.75406055538272</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>135.0033547520751</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>6.049105616774907</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>302.8836640412576</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>88.11276492133763</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>270.4873576255018</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>135.4371632022853</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>206.2970840822828</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>218.5219900933418</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>202.0105976495717</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>179.6989004166823</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>42.24406744395584</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>20.78023945356895</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247742</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>36.13415693252354</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>198.7926393862117</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>269.6425323314742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>47.90418220988077</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>87.93270968653144</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>361.5887724808711</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>223.7383150556605</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3158,7 +3158,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="C34" t="n">
-        <v>75.31950762206645</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>129.4829183512772</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3325,16 +3325,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.45423727436612</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>152.3650712933279</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>164.9988490762008</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>19.68942351146802</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>310.0296857152402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>20.95866062610968</v>
       </c>
       <c r="Y40" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>89.60487759803658</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>114.5505532674841</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>126.6594788029394</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.4013722874436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.1834685212288</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.79537822841627</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>152.4136899928913</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227611</v>
+        <v>456.735935410456</v>
       </c>
       <c r="C2" t="n">
-        <v>583.2614020227611</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="D2" t="n">
-        <v>583.2614020227611</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062759</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897908</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J2" t="n">
-        <v>21.0337116067851</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058976</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>141.3070323458394</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644762</v>
+        <v>271.1217663066257</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123838</v>
+        <v>407.650846758856</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985594</v>
+        <v>523.2361246735303</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020279</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652812</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652812</v>
+        <v>500.2410732550297</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652812</v>
+        <v>500.2410732550297</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652812</v>
+        <v>500.2410732550297</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652812</v>
+        <v>500.2410732550297</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652812</v>
+        <v>500.2410732550297</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652812</v>
+        <v>500.2410732550297</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652812</v>
+        <v>500.2410732550297</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.2614020227611</v>
+        <v>500.2410732550297</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024228</v>
+        <v>51.36582106616808</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>150.9598290415665</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140249</v>
+        <v>286.5382069752468</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546608</v>
+        <v>431.9158668530682</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476356</v>
+        <v>511.794105775609</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017072</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652812</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264295</v>
+        <v>509.3106579270987</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264295</v>
+        <v>360.9812426859789</v>
       </c>
       <c r="T3" t="n">
-        <v>487.5180226099444</v>
+        <v>212.6518274448592</v>
       </c>
       <c r="U3" t="n">
-        <v>298.0982375934592</v>
+        <v>64.32241220373942</v>
       </c>
       <c r="V3" t="n">
-        <v>298.0982375934592</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="W3" t="n">
-        <v>108.6784525769741</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X3" t="n">
-        <v>108.6784525769741</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230188</v>
+        <v>568.1323900236097</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>573.8982235532799</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829027</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829027</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829027</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829027</v>
+        <v>565.754121675274</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330562</v>
+        <v>565.754121675274</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.00204697330562</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="C5" t="n">
-        <v>15.00204697330562</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330562</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330562</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330562</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M5" t="n">
-        <v>347.121819064476</v>
+        <v>306.6973793432476</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123834</v>
+        <v>456.3902241803912</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985592</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020275</v>
+        <v>659.1628932295215</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652808</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652808</v>
+        <v>584.7146254527693</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652808</v>
+        <v>584.7146254527693</v>
       </c>
       <c r="T5" t="n">
-        <v>560.6825636487957</v>
+        <v>416.2475277776902</v>
       </c>
       <c r="U5" t="n">
-        <v>393.8416170062758</v>
+        <v>416.2475277776902</v>
       </c>
       <c r="V5" t="n">
-        <v>204.4218319897907</v>
+        <v>350.2767894860245</v>
       </c>
       <c r="W5" t="n">
-        <v>15.00204697330562</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="X5" t="n">
-        <v>15.00204697330562</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.00204697330562</v>
+        <v>181.8096918109454</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336.2349471645405</v>
+        <v>162.2770037971175</v>
       </c>
       <c r="C6" t="n">
-        <v>161.7819178834135</v>
+        <v>162.2770037971175</v>
       </c>
       <c r="D6" t="n">
-        <v>161.7819178834135</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E6" t="n">
-        <v>161.7819178834135</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F6" t="n">
-        <v>161.7819178834135</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G6" t="n">
-        <v>24.2427367058626</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>24.2427367058626</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>24.2427367058626</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>286.8472429682662</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>450.6888460033935</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476359</v>
+        <v>578.3521085265269</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017073</v>
+        <v>661.4800654500998</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652808</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264292</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S6" t="n">
-        <v>525.6547321810256</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="T6" t="n">
-        <v>525.6547321810256</v>
+        <v>499.2111991472758</v>
       </c>
       <c r="U6" t="n">
-        <v>525.6547321810256</v>
+        <v>499.2111991472758</v>
       </c>
       <c r="V6" t="n">
-        <v>525.6547321810256</v>
+        <v>330.7441014721967</v>
       </c>
       <c r="W6" t="n">
-        <v>525.6547321810256</v>
+        <v>330.7441014721967</v>
       </c>
       <c r="X6" t="n">
-        <v>336.2349471645405</v>
+        <v>330.7441014721967</v>
       </c>
       <c r="Y6" t="n">
-        <v>336.2349471645405</v>
+        <v>162.2770037971175</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230187</v>
+        <v>20.64084305584017</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170739</v>
+        <v>31.59410626612423</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396366</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702829027</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.8416170062762</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C8" t="n">
-        <v>393.8416170062762</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D8" t="n">
-        <v>393.8416170062762</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8416170062762</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897909</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J8" t="n">
         <v>21.03371160678512</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058996</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079193</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644767</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123841</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985599</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020283</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652817</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652817</v>
+        <v>743.6410113056425</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652817</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652817</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="U8" t="n">
-        <v>583.2614020227616</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="V8" t="n">
-        <v>583.2614020227616</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="W8" t="n">
-        <v>583.2614020227616</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="X8" t="n">
-        <v>583.2614020227616</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.2614020227616</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>448.0101957852228</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C9" t="n">
-        <v>448.0101957852228</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D9" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E9" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F9" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024237</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772654</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140252</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546613</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476362</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017078</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652815</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652815</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652815</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652815</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652815</v>
+        <v>336.2349471645401</v>
       </c>
       <c r="V9" t="n">
-        <v>616.2255328052909</v>
+        <v>146.8151621480552</v>
       </c>
       <c r="W9" t="n">
-        <v>616.2255328052909</v>
+        <v>146.8151621480552</v>
       </c>
       <c r="X9" t="n">
-        <v>616.2255328052909</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y9" t="n">
-        <v>616.2255328052909</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330564</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230194</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170752</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396384</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829051</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829051</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829051</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829051</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829051</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702829051</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702829051</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702829051</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702829051</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330564</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330564</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.798686923957</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.836169983545</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
         <v>892.5704713767946</v>
@@ -5032,37 +5032,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.016021139988</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="X11" t="n">
-        <v>2235.550262878909</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.410930903097</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>511.4317969248226</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C13" t="n">
-        <v>511.4317969248226</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124869</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
@@ -5208,43 +5208,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V13" t="n">
-        <v>511.4317969248226</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W13" t="n">
-        <v>511.4317969248226</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X13" t="n">
-        <v>511.4317969248226</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y13" t="n">
-        <v>511.4317969248226</v>
+        <v>826.5851666348717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1664.678443125552</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1664.678443125552</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1306.412744518801</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5314,16 +5314,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X14" t="n">
-        <v>2051.278283189673</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y14" t="n">
-        <v>2051.278283189673</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="15">
@@ -5381,13 +5381,13 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>381.1049005553748</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C16" t="n">
-        <v>381.1049005553748</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D16" t="n">
-        <v>381.1049005553748</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5466,22 +5466,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U16" t="n">
-        <v>562.7533653856145</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V16" t="n">
-        <v>562.7533653856145</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W16" t="n">
-        <v>562.7533653856145</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X16" t="n">
-        <v>562.7533653856145</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.7533653856145</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1252.833343223196</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C17" t="n">
-        <v>883.8708262827847</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>525.6051276760343</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W17" t="n">
-        <v>2403.03827352421</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X17" t="n">
-        <v>2029.57251526313</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y17" t="n">
-        <v>1639.433183287318</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,31 +5612,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.1308394896936</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C19" t="n">
-        <v>471.1308394896936</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D19" t="n">
-        <v>382.1280466398576</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877109</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U19" t="n">
-        <v>699.1203903877109</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="V19" t="n">
-        <v>699.1203903877109</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="W19" t="n">
-        <v>699.1203903877109</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="X19" t="n">
-        <v>471.1308394896936</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="Y19" t="n">
-        <v>471.1308394896936</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1754.744438482647</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C20" t="n">
-        <v>1754.744438482647</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
@@ -5752,7 +5752,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912079</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810543</v>
@@ -5785,19 +5785,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X20" t="n">
-        <v>2531.48361052258</v>
+        <v>2069.572240784009</v>
       </c>
       <c r="Y20" t="n">
-        <v>2141.344278546768</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5819,46 +5819,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I21" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>700.1577228956174</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C22" t="n">
-        <v>531.2215399677106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
         <v>66.5121164321834</v>
@@ -5943,19 +5943,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V22" t="n">
-        <v>700.1577228956174</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W22" t="n">
-        <v>700.1577228956174</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X22" t="n">
-        <v>700.1577228956174</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y22" t="n">
-        <v>700.1577228956174</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1032.06112435253</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C23" t="n">
-        <v>663.0986074121186</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D23" t="n">
-        <v>481.5845665871869</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,13 +6001,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6019,22 +6019,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392464</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y23" t="n">
-        <v>1418.660964416652</v>
+        <v>2251.634947019673</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
@@ -6071,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6147,52 +6147,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K25" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>1660.609998322718</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269321</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X26" t="n">
-        <v>2367.25366140713</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
         <v>85.51940803064545</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
         <v>381.1049005553748</v>
@@ -6408,28 +6408,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1405.526882613611</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="C29" t="n">
-        <v>1036.5643656732</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D29" t="n">
-        <v>678.2986670664493</v>
+        <v>1550.724918249255</v>
       </c>
       <c r="E29" t="n">
-        <v>678.2986670664493</v>
+        <v>1164.936665651011</v>
       </c>
       <c r="F29" t="n">
-        <v>267.3127622768417</v>
+        <v>753.9507608614033</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>338.8783107063998</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923659</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653545</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X29" t="n">
-        <v>2182.266054653545</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y29" t="n">
-        <v>1792.126722677733</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K31" t="n">
         <v>176.6457242372933</v>
@@ -6630,43 +6630,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>699.120390387711</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>410.0175235133546</v>
+        <v>650.7323275494475</v>
       </c>
       <c r="V31" t="n">
-        <v>155.3330353074677</v>
+        <v>650.7323275494475</v>
       </c>
       <c r="W31" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="X31" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.52858457759</v>
+        <v>2295.336172843074</v>
       </c>
       <c r="C32" t="n">
-        <v>810.5660676371781</v>
+        <v>1926.373655902662</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3003690304276</v>
+        <v>1568.107957295912</v>
       </c>
       <c r="E32" t="n">
-        <v>66.51211643218342</v>
+        <v>1182.319704697667</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218342</v>
+        <v>771.3337999080597</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6730,22 +6730,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923658</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653544</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X32" t="n">
-        <v>1956.267756617523</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="Y32" t="n">
-        <v>1566.128424641711</v>
+        <v>2681.936012907196</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>289.4823746594539</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
         <v>66.51211643218342</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>699.1203903877109</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W34" t="n">
-        <v>699.1203903877109</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X34" t="n">
-        <v>471.1308394896936</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y34" t="n">
-        <v>471.1308394896936</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1221.551972426786</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="Y35" t="n">
-        <v>1608.151812490907</v>
+        <v>2475.958265291417</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>364.5418494269123</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C37" t="n">
-        <v>364.5418494269123</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4252100145765</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U37" t="n">
-        <v>766.9828934006821</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V37" t="n">
-        <v>766.9828934006821</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W37" t="n">
-        <v>766.9828934006821</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="X37" t="n">
-        <v>766.9828934006821</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y37" t="n">
-        <v>546.190314257152</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1204.726236768953</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="C38" t="n">
-        <v>835.7637198285415</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>477.498021221791</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y38" t="n">
-        <v>1591.326076833075</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="39">
@@ -7247,13 +7247,13 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031481</v>
@@ -7268,7 +7268,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372933</v>
@@ -7365,19 +7365,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U40" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V40" t="n">
-        <v>920.887005818185</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W40" t="n">
-        <v>920.887005818185</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X40" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y40" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1179.52858457759</v>
+        <v>1295.236214140707</v>
       </c>
       <c r="C41" t="n">
-        <v>810.5660676371781</v>
+        <v>926.2736972002956</v>
       </c>
       <c r="D41" t="n">
-        <v>452.3003690304276</v>
+        <v>568.0079985935452</v>
       </c>
       <c r="E41" t="n">
-        <v>66.5121164321834</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X41" t="n">
-        <v>1956.267756617523</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y41" t="n">
-        <v>1566.128424641711</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C43" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="U43" t="n">
-        <v>699.1203903877109</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="V43" t="n">
-        <v>699.1203903877109</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="W43" t="n">
-        <v>699.1203903877109</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X43" t="n">
-        <v>699.1203903877109</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1477.112184968822</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C44" t="n">
-        <v>1108.149668028411</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D44" t="n">
-        <v>749.8839694216604</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1477.112184968822</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.5187033424295</v>
+        <v>449.8213709509847</v>
       </c>
       <c r="C46" t="n">
-        <v>363.5187033424295</v>
+        <v>280.8851880230778</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300938</v>
+        <v>280.8851880230778</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>132.9720944406847</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>132.9720944406847</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>545.1671681726692</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V46" t="n">
-        <v>545.1671681726692</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W46" t="n">
-        <v>545.1671681726692</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X46" t="n">
-        <v>545.1671681726692</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="Y46" t="n">
-        <v>545.1671681726692</v>
+        <v>631.4698357812244</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>339.6637551973525</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>218.426770682299</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319744</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059415</v>
+        <v>235.0842489835532</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753911</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637377</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327426</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328823</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.0654014799587</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>61.59970664354544</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>22.77491242827335</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>4.378130057857305</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625680929</v>
+        <v>48.87899782081604</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377063</v>
+        <v>79.02279728521572</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>180.751611857949</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459931</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.9430542296726</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825412</v>
+        <v>61.70981873818783</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>21.72895798776032</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,28 +22743,28 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474421</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>26.0448796648253</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>74.18139529270552</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>264.854602087678</v>
       </c>
       <c r="V4" t="n">
-        <v>199.9216970693932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>246.3871906880662</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166637</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988657</v>
+        <v>46.97568950224161</v>
       </c>
       <c r="U5" t="n">
-        <v>85.99672338893558</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038147</v>
+        <v>262.441227561386</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510928</v>
+        <v>182.4585420190847</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409147</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>6.230938197426912</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>74.81755514382759</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>29.32508605137429</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>66.01816045109692</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>38.90026907897601</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318195</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825412</v>
+        <v>59.3465326483775</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402845</v>
+        <v>17.84535296940157</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,28 +22980,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594797</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709379</v>
+        <v>22.00204076308472</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515972</v>
+        <v>71.38234319379296</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>249.8329992938961</v>
       </c>
       <c r="V7" t="n">
-        <v>199.9216970693932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971601</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.350458575391</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637376</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199746</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666364</v>
+        <v>70.68499503062208</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988666</v>
       </c>
       <c r="U8" t="n">
-        <v>85.99672338893535</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409145</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265828</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846311</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V9" t="n">
-        <v>100.2625394480345</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>75.27800118047543</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>127.6160339275027</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23196,16 +23196,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.0699996282541</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K10" t="n">
-        <v>14.1043098940284</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709373</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159717</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106903</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>173.4937091346021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.3777201241318</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>107.9929497210587</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23472,10 +23472,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>132.9888247250121</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>125.2258325606147</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>13.80344943460108</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>13.25124995512084</v>
       </c>
     </row>
     <row r="15">
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>107.0779196265546</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -23706,10 +23706,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>151.2084834535378</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>375.8812644554869</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>66.84743663721139</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>60.50270809687473</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>15.72448058011105</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,10 +23974,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>219.2458784183976</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>163.4340165961862</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24183,16 +24183,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>33.61565323048623</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>180.7232440139088</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>174.9841412040007</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24420,7 +24420,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>214.1238107588406</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>312.4389741767271</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>348.9508612249001</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>250.0776812730894</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>212.1290862672417</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>24.96523205584629</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>238.3076559957321</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>198.5902886500596</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>49.33295317258234</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>145.9927856228085</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>158.8733195558277</v>
       </c>
       <c r="C34" t="n">
-        <v>91.92731347656138</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25128,19 +25128,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>253.2509233122033</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.7837013816875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25365,22 +25365,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.846766912285</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>121.5241492603902</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>345.5834682595395</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>76.20825294081334</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y40" t="n">
-        <v>160.3027978282312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>292.3254924742252</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>255.180547410985</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>92.88947047322978</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.18328106465123</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>284.1719029921753</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>167.0544701348248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>100.230430030612</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>133.7981482127216</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.075833768</v>
+        <v>402256.5418769752</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337679</v>
+        <v>417888.8482179075</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337681</v>
+        <v>433263.0758337679</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>139242.6491112605</v>
+      </c>
+      <c r="C2" t="n">
+        <v>144653.8320754295</v>
+      </c>
+      <c r="D2" t="n">
         <v>149975.6800963041</v>
-      </c>
-      <c r="C2" t="n">
-        <v>149975.6800963041</v>
-      </c>
-      <c r="D2" t="n">
-        <v>149975.6800963042</v>
       </c>
       <c r="E2" t="n">
         <v>296136.8796318747</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="H2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="I2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>296136.8796318746</v>
-      </c>
-      <c r="J2" t="n">
-        <v>296136.8796318744</v>
       </c>
       <c r="K2" t="n">
         <v>296136.8796318744</v>
       </c>
       <c r="L2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="M2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="O2" t="n">
         <v>296136.8796318745</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>296136.8796318745</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="P2" t="n">
-        <v>296136.8796318744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>542655.4349751303</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340662</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>21735.84085679102</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336671</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>38421.40650613422</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136689</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004506</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.392248805132112e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723343</v>
+        <v>107.1921479602627</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723343</v>
+        <v>122.1898065383437</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723344</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
@@ -26432,13 +26432,13 @@
         <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="J4" t="n">
         <v>584.6469890061231</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>53719.11977902089</v>
       </c>
       <c r="C5" t="n">
+        <v>55335.34872138573</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161359</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56985.80041161361</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26484,7 +26484,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.34056139328</v>
@@ -26502,16 +26502,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="O5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732621</v>
+        <v>-458518.1319426712</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.01754758356</v>
+        <v>64626.86678985711</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758347</v>
+        <v>69896.83250792371</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303616</v>
+        <v>-406296.1510900091</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033057</v>
+        <v>220838.4925436585</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747607</v>
+        <v>182417.086037524</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033054</v>
+        <v>215707.5254415213</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033056</v>
+        <v>215588.5853176536</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542813</v>
+        <v>60382.05067578099</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436581</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572207</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129049</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129051</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663202</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663204</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022925</v>
@@ -26816,22 +26816,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572207</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697053</v>
       </c>
       <c r="D3" t="n">
+        <v>17.85630888871356</v>
+      </c>
+      <c r="E3" t="n">
+        <v>541.3067596803935</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>541.3067596803932</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961981</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799177</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560962004</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799177</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961981</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799177</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.058600454903398</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877943</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>79.36419403766334</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>261.8616976154183</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>324.8625912871683</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>361.4722271270566</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>367.3212256695509</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>346.8510173961052</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>296.0293186656775</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>46.91035786611123</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.011523491339631</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1646880363922718</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>37.92267335645456</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>104.0627142383933</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>177.8597534986735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>239.1543878358322</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>279.0818904206852</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>278.1878331720418</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>223.2813342651926</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.591218493672</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>68.38641580050584</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.439609785297034</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07246370705055014</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9234172942179388</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.210019215864953</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>27.76967644793584</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>65.28560270120828</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>77.32360633674033</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>41.52019942910841</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05036821604825127</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621738</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>262.6874582801973</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077004</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954487</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043128</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528642</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672896</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470278</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470028</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622684</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244298</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151095</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974685</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619228</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T8" t="n">
-        <v>9.65196850792459</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061603</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435306</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575677</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590855</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621739</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405035</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975333</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829657</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292676</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628874</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550084</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288823</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820374</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390171</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445829</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620025</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639165</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114202</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K10" t="n">
-        <v>114.908948276507</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276992</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604416</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592435</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820539</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784867</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647915</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181399</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061368</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,10 +32472,10 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953979</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003801</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
         <v>691.3565293623194</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>41.77184657043779</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>89.09617631718106</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>137.90816207296</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>116.7528059744185</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>64.79632291040798</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>40.01831452431455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>100.600008055958</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>136.9478564986669</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>80.68508982074822</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>76.35391775679312</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765052</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>2.402291260945134</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>5.824074272394199</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>13.62248565813567</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781481</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>120.553424358179</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855708</v>
+        <v>83.96763325613429</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>5.706708427488508</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646086</v>
+        <v>7.371968606034244</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061163</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520835</v>
+        <v>18.73772222104904</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400609</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868251</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788361</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973024</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.815666319755</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504119</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405816</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916024</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065998</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781489</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606293</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>156.782083875515</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996324</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848232</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855717</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765013</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646092</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061169</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N10" t="n">
-        <v>23.6651852952084</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400666</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687116</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553995</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
